--- a/medicine/Psychotrope/Schlossbrauerei_Irlbach/Schlossbrauerei_Irlbach.xlsx
+++ b/medicine/Psychotrope/Schlossbrauerei_Irlbach/Schlossbrauerei_Irlbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Schlossbrauerei Irlbach est une brasserie à Irlbach, dans le Land de Bavière.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie existe depuis plus de 500 ans, jusqu'en 1811 dans le cadre du château d'Irlbach, puis sous-traitée et vendue à la famille Poschinger-Bray. Il appartenait à la famille jusqu'à ce qu'il soit revendu à Arcobräu en 2016[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie existe depuis plus de 500 ans, jusqu'en 1811 dans le cadre du château d'Irlbach, puis sous-traitée et vendue à la famille Poschinger-Bray. Il appartenait à la famille jusqu'à ce qu'il soit revendu à Arcobräu en 2016.
 La brasserie est membre de la coopérative Brauring.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie utilise de l'orge et du blé de sa propre culture, du houblon Holledauer et Tettnanger. L'eau de brassage provient du puits profond de la brasserie.
 Les bières sont vendues en bouteilles à capsule couronnée.
